--- a/src/Candidates.xlsx
+++ b/src/Candidates.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Email</t>
   </si>
@@ -44,6 +44,24 @@
   </si>
   <si>
     <t>parag kulkarni</t>
+  </si>
+  <si>
+    <t>nirali@gmail.com</t>
+  </si>
+  <si>
+    <t>nirali gundecha</t>
+  </si>
+  <si>
+    <t>aditya@gmail.com</t>
+  </si>
+  <si>
+    <t>aditya phadnis</t>
+  </si>
+  <si>
+    <t>pranav@gmail.com</t>
+  </si>
+  <si>
+    <t>pranav oke</t>
   </si>
 </sst>
 </file>
@@ -397,10 +415,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -447,7 +465,7 @@
         <v>7</v>
       </c>
       <c r="C3">
-        <v>1122334455</v>
+        <v>8237778188</v>
       </c>
       <c r="D3" s="2">
         <v>34953</v>
@@ -461,10 +479,52 @@
         <v>9</v>
       </c>
       <c r="C4">
-        <v>3322114455</v>
+        <v>9922962322</v>
       </c>
       <c r="D4" s="2">
         <v>25654</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5">
+        <v>8805604500</v>
+      </c>
+      <c r="D5" s="2">
+        <v>34981</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6">
+        <v>8605012869</v>
+      </c>
+      <c r="D6" s="2">
+        <v>34894</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7">
+        <v>9503770102</v>
+      </c>
+      <c r="D7" s="2">
+        <v>35029</v>
       </c>
     </row>
   </sheetData>
@@ -472,6 +532,9 @@
     <hyperlink ref="A2" r:id="rId1"/>
     <hyperlink ref="A3" r:id="rId2"/>
     <hyperlink ref="A4" r:id="rId3"/>
+    <hyperlink ref="A5" r:id="rId4"/>
+    <hyperlink ref="A6" r:id="rId5"/>
+    <hyperlink ref="A7" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
